--- a/Global Tour and Travels Test cases.xlsx
+++ b/Global Tour and Travels Test cases.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Vesion History" sheetId="1" r:id="rId1"/>
+    <sheet name="Version History" sheetId="1" r:id="rId1"/>
     <sheet name="Sign Up" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="4" r:id="rId3"/>
     <sheet name="Forgot Password" sheetId="5" r:id="rId4"/>
+    <sheet name="Contact" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="153">
   <si>
     <t>Project Name</t>
   </si>
@@ -489,10 +490,6 @@
   </si>
   <si>
     <t>Password text should not be displayed in source page</t>
-  </si>
-  <si>
-    <t>(TS_004)
-Forgot Passsword</t>
   </si>
   <si>
     <t>1. Open the Application URL and navigate to Login Page
@@ -618,6 +615,53 @@
   <si>
     <t>Text entered into the 'Password' and 
 'Confirmed' fields should be toggled to hide its visibility (i.e. * or . Symbols should be displayed)</t>
+  </si>
+  <si>
+    <t>(TS_003)
+Forgot Passsword
+Functionality</t>
+  </si>
+  <si>
+    <t>Verifing whether Contact section appear</t>
+  </si>
+  <si>
+    <t>Click on Contact or scrool down</t>
+  </si>
+  <si>
+    <t>A contact section should be appear</t>
+  </si>
+  <si>
+    <t>Veryfing the icons on contact section</t>
+  </si>
+  <si>
+    <t>Icons should be shown and black in 
+color</t>
+  </si>
+  <si>
+    <t>(TS_001)
+Contact Functionality and Accessibility</t>
+  </si>
+  <si>
+    <t>Checking contact section texts templet</t>
+  </si>
+  <si>
+    <t>Title text should be bold and black in color &amp; subtitle should be gray in color.</t>
+  </si>
+  <si>
+    <t>Verifying weather the links work</t>
+  </si>
+  <si>
+    <t>1. Click on Contact or scrool down
+2. Click on the links</t>
+  </si>
+  <si>
+    <t>Links should be work properly.</t>
+  </si>
+  <si>
+    <t>Verifying spelling or wrong address on contact section</t>
+  </si>
+  <si>
+    <t>All contact information should be given right and spelling should be correct.</t>
   </si>
 </sst>
 </file>
@@ -814,14 +858,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,29 +1114,29 @@
       </c>
     </row>
     <row r="9" spans="7:10" ht="14.4">
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="7:10" ht="14.4">
-      <c r="H10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="7:10" ht="14.4">
-      <c r="H11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="7:10" ht="14.4">
-      <c r="H12" s="14"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="7:10" ht="14.4">
-      <c r="H13" s="15"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
@@ -3622,7 +3666,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5146,10 +5190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K991"/>
+  <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5208,22 +5252,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>115</v>
+      <c r="G2" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>21</v>
@@ -5239,22 +5283,22 @@
         <v>23</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>21</v>
@@ -5270,22 +5314,22 @@
         <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>21</v>
@@ -5301,22 +5345,22 @@
         <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -5332,22 +5376,22 @@
         <v>26</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>21</v>
@@ -5363,22 +5407,22 @@
         <v>27</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>21</v>
@@ -5394,22 +5438,22 @@
         <v>28</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>21</v>
@@ -5425,22 +5469,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>21</v>
@@ -5451,74 +5495,10 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="43.2">
-      <c r="A10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="43.2">
-      <c r="A11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:11" ht="15.75" customHeight="1"/>
@@ -6493,10 +6473,1204 @@
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K984"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="25" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="72">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="72">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="72">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="72">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Global Tour and Travels Test cases.xlsx
+++ b/Global Tour and Travels Test cases.xlsx
@@ -9,26 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
-    <sheet name="Sign Up" sheetId="2" r:id="rId2"/>
-    <sheet name="Login" sheetId="4" r:id="rId3"/>
-    <sheet name="Forgot Password" sheetId="5" r:id="rId4"/>
-    <sheet name="Contact" sheetId="8" r:id="rId5"/>
+    <sheet name="Test Scenarios" sheetId="11" r:id="rId2"/>
+    <sheet name="Sign Up" sheetId="2" r:id="rId3"/>
+    <sheet name="Login" sheetId="4" r:id="rId4"/>
+    <sheet name="Forgot Password" sheetId="5" r:id="rId5"/>
+    <sheet name="Contact" sheetId="8" r:id="rId6"/>
+    <sheet name="About" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miOHNOoA/NcmVIyfWxIR7I8AgViVw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7miOHNOoA/NcmVIyfWxIR7I8AgViVw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="186">
   <si>
     <t>Project Name</t>
   </si>
@@ -638,13 +640,6 @@
 color</t>
   </si>
   <si>
-    <t>(TS_001)
-Contact Functionality and Accessibility</t>
-  </si>
-  <si>
-    <t>Checking contact section texts templet</t>
-  </si>
-  <si>
     <t>Title text should be bold and black in color &amp; subtitle should be gray in color.</t>
   </si>
   <si>
@@ -662,17 +657,135 @@
   </si>
   <si>
     <t>All contact information should be given right and spelling should be correct.</t>
+  </si>
+  <si>
+    <t>(TS_004)
+Contact Functionality and Accessibility</t>
+  </si>
+  <si>
+    <t>(TS_005)
+About section Accessibility</t>
+  </si>
+  <si>
+    <t>Verifing whether About section appear</t>
+  </si>
+  <si>
+    <t>Click on About or scrool down</t>
+  </si>
+  <si>
+    <t>A about section should be appear</t>
+  </si>
+  <si>
+    <t>Checking spelling mistake on about page</t>
+  </si>
+  <si>
+    <t>No spelling mistake should be present.</t>
+  </si>
+  <si>
+    <t>Checking about page texts template</t>
+  </si>
+  <si>
+    <t>Checking contact section texts template</t>
+  </si>
+  <si>
+    <t>Header should be bold &amp; black in color and sub text should be gray in color.</t>
+  </si>
+  <si>
+    <t>Verifying the images in about page</t>
+  </si>
+  <si>
+    <t>Image should be  clearly shown in about page</t>
+  </si>
+  <si>
+    <t>Verifying the count down in about page</t>
+  </si>
+  <si>
+    <t>Count down should be autometic counting whenever scrolling or reloading.</t>
+  </si>
+  <si>
+    <t>Reference Document</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reference</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Number of Test Cases</t>
+  </si>
+  <si>
+    <t>Application URL</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Verify the working of Login functionality</t>
+  </si>
+  <si>
+    <t>Verify the working of Forgot Password functionality</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>(TS_001)
+Sign Up Functionality</t>
+  </si>
+  <si>
+    <t>(TS_002)
+Login Functionality</t>
+  </si>
+  <si>
+    <t>(TS_003)
+Forgot Password Functionality</t>
+  </si>
+  <si>
+    <t>(TS_005)
+About Section Accessibility</t>
+  </si>
+  <si>
+    <t>Verify the working of Sign Up an Account functionality</t>
+  </si>
+  <si>
+    <t>Verify the working of Contact functionality and accessibility</t>
+  </si>
+  <si>
+    <t>Verify the working of About section accessibility</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Test Scenarios</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Test Scenarios</t>
+  </si>
+  <si>
+    <t>https://globaltravelbd.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,8 +808,23 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,8 +837,20 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -828,46 +968,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1084,7 +1303,7 @@
   <dimension ref="G7:J1000"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2131,562 +2350,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:E955"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
-    <col min="12" max="25" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="76.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:5" ht="14.4"/>
+    <row r="2" spans="1:5" ht="14.4">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.4">
+      <c r="A3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.4">
+      <c r="A4" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.4"/>
+    <row r="6" spans="1:5" ht="14.4"/>
+    <row r="7" spans="1:5" ht="14.4">
+      <c r="A7" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="39" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8">
+      <c r="A9" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2">
+      <c r="A10" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2">
+      <c r="A11" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="25">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="72">
-      <c r="A2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="7"/>
+    <row r="12" spans="1:5" ht="43.2">
+      <c r="A12" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="25">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="115.2">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="86.4">
-      <c r="A4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="86.4">
-      <c r="A5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="187.2">
-      <c r="A6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="216">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="115.2">
-      <c r="A8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="216">
-      <c r="A9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="115.2">
-      <c r="A10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="172.8">
-      <c r="A12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="9">
-        <v>12345</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="158.4">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3610,54 +3441,22 @@
     <row r="953" ht="15.75" customHeight="1"/>
     <row r="954" ht="15.75" customHeight="1"/>
     <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" location="'Sign Up'!A1" display="'Sign Up'!A1"/>
+    <hyperlink ref="A9" location="Login!A1" display="Login!A1"/>
+    <hyperlink ref="A10" location="'Forgot Password'!A1" display="'Forgot Password'!A1"/>
+    <hyperlink ref="A11" location="Contact!A1" display="Contact!A1"/>
+    <hyperlink ref="A12" location="About!A1" display="About!A1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3666,7 +3465,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3686,94 +3485,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>89</v>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:11" ht="72">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="100.8">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="7"/>
@@ -3782,27 +3555,27 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="86.4">
+    <row r="4" spans="1:11" ht="115.2">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>101</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>105</v>
+        <v>69</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>21</v>
@@ -3815,25 +3588,25 @@
     </row>
     <row r="5" spans="1:11" ht="86.4">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>103</v>
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -3846,25 +3619,25 @@
     </row>
     <row r="6" spans="1:11" ht="86.4">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>81</v>
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>21</v>
@@ -3875,27 +3648,27 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="86.4">
+    <row r="7" spans="1:11" ht="187.2">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>21</v>
@@ -3906,60 +3679,60 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="115.2">
+    <row r="8" spans="1:11" ht="216">
       <c r="A8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="129.6">
+    <row r="9" spans="1:11" ht="115.2">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="7"/>
@@ -3968,27 +3741,27 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="144">
+    <row r="10" spans="1:11" ht="216">
       <c r="A10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>21</v>
@@ -3999,27 +3772,27 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="100.8">
+    <row r="11" spans="1:11" ht="115.2">
       <c r="A11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>97</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>100</v>
+        <v>73</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>21</v>
@@ -4030,27 +3803,27 @@
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="86.4">
+    <row r="12" spans="1:11" ht="72">
       <c r="A12" s="9" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>110</v>
+      <c r="G12" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>21</v>
@@ -4061,30 +3834,66 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="14.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9"/>
+    <row r="13" spans="1:11" ht="172.8">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="9">
+        <v>12345</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="14.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9"/>
+    <row r="14" spans="1:11" ht="158.4">
+      <c r="A14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="14.4">
@@ -5183,6 +4992,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Test Scenarios'!A1" display="&lt;&lt; Test Scenarios"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -5190,11 +5002,1542 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K987"/>
+  <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="25" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="72">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="100.8">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="86.4">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="86.4">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="86.4">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="86.4">
+      <c r="A8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="115.2">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="129.6">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="144">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="100.8">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="86.4">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Test Scenarios'!A1" display="&lt;&lt;Test Scenarios"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K988"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5213,92 +6556,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="288">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:11" ht="288">
+      <c r="A3" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="115.2">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>115</v>
+      <c r="C3" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>21</v>
@@ -5309,27 +6626,27 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="72">
+    <row r="4" spans="1:11" ht="115.2">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>21</v>
@@ -5340,27 +6657,27 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="230.4">
+    <row r="5" spans="1:11" ht="72">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
+        <v>121</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -5371,32 +6688,32 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="86.4">
+    <row r="6" spans="1:11" ht="230.4">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
@@ -5404,50 +6721,50 @@
     </row>
     <row r="7" spans="1:11" ht="86.4">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="100.8">
+    <row r="8" spans="1:11" ht="86.4">
       <c r="A8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>19</v>
@@ -5464,27 +6781,27 @@
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="86.4">
+    <row r="9" spans="1:11" ht="100.8">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>21</v>
@@ -5495,7 +6812,37 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:11" ht="86.4">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="13" spans="1:11" ht="15.75" customHeight="1"/>
@@ -6473,19 +7820,21 @@
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Test Scenarios'!A1" display="&lt;&lt;Test Scenarios"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K984"/>
+  <dimension ref="A1:K985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6504,80 +7853,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="72">
-      <c r="A2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="72">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
@@ -6589,7 +7912,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>21</v>
@@ -6602,13 +7925,13 @@
     </row>
     <row r="4" spans="1:11" ht="72">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
@@ -6620,7 +7943,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>21</v>
@@ -6633,25 +7956,25 @@
     </row>
     <row r="5" spans="1:11" ht="72">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -6664,36 +7987,66 @@
     </row>
     <row r="6" spans="1:11" ht="72">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:11" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="9" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="10" spans="1:11" ht="15.75" customHeight="1"/>
@@ -7671,7 +9024,1215 @@
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Test Scenarios'!A1" display="&lt;&lt;Test Scenarios"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K985"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="25" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="72">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="72">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="72">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Test Scenarios'!A1" display="&lt;&lt;Test Scenarios"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
